--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
@@ -51,6 +51,12 @@
   </si>
   <si>
     <t>Born</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Male</t>
   </si>
 </sst>
 </file>
@@ -95,12 +101,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -379,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -391,7 +396,7 @@
     <col min="5" max="5" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -407,15 +412,18 @@
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="b">
         <v>0</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>19828</v>
       </c>
       <c r="D2">
@@ -425,33 +433,35 @@
         <f>1/0</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>14981</v>
       </c>
       <c r="D3">
         <v>75</v>
       </c>
-      <c r="E3" t="e">
-        <f>a</f>
-        <v>#NAME?</v>
+      <c r="G3" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="b">
         <v>0</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>22058</v>
       </c>
       <c r="D4">
@@ -461,9 +471,9 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C5" s="2"/>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -386,7 +386,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -465,7 +467,7 @@
         <v>22058</v>
       </c>
       <c r="D4">
-        <v>56</v>
+        <v>56.5</v>
       </c>
       <c r="E4" t="e">
         <f>#REF!</f>
